--- a/artfynd/A 44561-2021.xlsx
+++ b/artfynd/A 44561-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>258538</v>
+        <v>96142350</v>
       </c>
       <c r="B2" t="n">
-        <v>92804</v>
+        <v>90653</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>782</v>
+        <v>4364</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skirmossa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hookeria lucens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hedw.) Sm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Muggelidsbäcken, strax N om Balketorp, Dls</t>
+          <t>Muggelid, Dls</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>333081.3534867804</v>
+        <v>333288.6459826281</v>
       </c>
       <c r="R2" t="n">
-        <v>6498342.744522936</v>
+        <v>6498947.551675561</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1999-05-15</t>
+          <t>2021-09-14</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1999-05-15</t>
+          <t>2021-09-14</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -768,11 +768,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Tämligen rikligt längs ca 150 m av bäcken. Datum osäkert.</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
@@ -781,36 +776,26 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>I skuggig blandskog</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>På fuktig jord i bäckkant</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2199338</v>
+        <v>69173232</v>
       </c>
       <c r="B3" t="n">
-        <v>108193</v>
+        <v>90655</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -819,41 +804,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>219711</v>
+        <v>788</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Hydnellum geogenium</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Banker</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Balketorp, 400 m NO om, Dls</t>
+          <t>Muggelidsbäcken, Dls</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>333273.3609825537</v>
+        <v>333304.9626084958</v>
       </c>
       <c r="R3" t="n">
-        <v>6498504.655406407</v>
+        <v>6498681.251649193</v>
       </c>
       <c r="S3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -877,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1979-04-22</t>
+          <t>2017-08-27</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -887,7 +872,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>1979-04-22</t>
+          <t>2017-08-27</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -903,26 +888,35 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Äldre barrdominerad skog utmed bäck med delvis kvillande lopp</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Kjell Eriksson</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Kjell Eriksson</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
+          <t>Henrik Weibull</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Åtgärdsprogram för mossor i Västra Götalands län</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2192816</v>
+        <v>16044867</v>
       </c>
       <c r="B4" t="n">
-        <v>104489</v>
+        <v>90671</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -931,41 +925,52 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>219686</v>
+        <v>4368</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vätteros</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lathraea squamaria</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>(Scop.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Balketorp, 400 m NO om, Dls</t>
+          <t>Buxåskullen, 675 m NNO Balketorp, Dls</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>333273.3609825537</v>
+        <v>333364.6442548583</v>
       </c>
       <c r="R4" t="n">
-        <v>6498504.655406407</v>
+        <v>6498805.502037385</v>
       </c>
       <c r="S4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -989,7 +994,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1982-05-19</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -999,7 +1004,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>1982-05-19</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1013,10 +1018,36 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>Kjell Eriksson</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>F1402</t>
+        </is>
+      </c>
       <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>Rolf-Göran Carlsson</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
       <c r="AW4" t="inlineStr">
         <is>
           <t>Kjell Eriksson</t>
@@ -1031,10 +1062,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2202431</v>
+        <v>96142344</v>
       </c>
       <c r="B5" t="n">
-        <v>108194</v>
+        <v>90319</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1047,37 +1078,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>219711</v>
+        <v>4769</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Balketorp, 600 m N-NNV om, Dls</t>
+          <t>Muggelidsbäcken, Dls</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>332860.5715872086</v>
+        <v>333265.6097484134</v>
       </c>
       <c r="R5" t="n">
-        <v>6498729.504914329</v>
+        <v>6498726.768297401</v>
       </c>
       <c r="S5" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1101,7 +1132,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1983-06-10</t>
+          <t>2021-09-14</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1111,7 +1142,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>1983-06-10</t>
+          <t>2021-09-14</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1131,12 +1162,12 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Kjell Eriksson</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Kjell Eriksson</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
@@ -1282,10 +1313,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>69173232</v>
+        <v>69173229</v>
       </c>
       <c r="B7" t="n">
-        <v>90655</v>
+        <v>92864</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1294,25 +1325,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>788</v>
+        <v>815</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Stor skogsbäckmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum geogenium</t>
+          <t>Hygrohypnum subeugyrium</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Banker</t>
+          <t>(Renauld &amp; Cardot) Broth.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1322,10 +1353,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>333304.9626084958</v>
+        <v>333243.743277251</v>
       </c>
       <c r="R7" t="n">
-        <v>6498681.251649193</v>
+        <v>6498692.219576385</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1403,37 +1434,37 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>69173229</v>
+        <v>69173228</v>
       </c>
       <c r="B8" t="n">
-        <v>92864</v>
+        <v>108194</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>815</v>
+        <v>219711</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stor skogsbäckmossa</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hygrohypnum subeugyrium</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Renauld &amp; Cardot) Broth.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1524,14 +1555,14 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>69173228</v>
+        <v>96142343</v>
       </c>
       <c r="B9" t="n">
-        <v>108194</v>
+        <v>90319</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1540,21 +1571,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>219711</v>
+        <v>4769</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1564,13 +1595,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>333243.743277251</v>
+        <v>333251.1676608387</v>
       </c>
       <c r="R9" t="n">
-        <v>6498692.219576385</v>
+        <v>6498743.562633296</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1594,7 +1625,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2017-08-27</t>
+          <t>2021-09-14</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1604,7 +1635,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2017-08-27</t>
+          <t>2021-09-14</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1620,35 +1651,26 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>Äldre barrdominerad skog utmed bäck med delvis kvillande lopp</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr">
-        <is>
-          <t>Åtgärdsprogram för mossor i Västra Götalands län</t>
-        </is>
-      </c>
+          <t>Anton Larsson</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16044867</v>
+        <v>2199338</v>
       </c>
       <c r="B10" t="n">
-        <v>90671</v>
+        <v>108193</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1657,52 +1679,41 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4368</v>
+        <v>219711</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Buxåskullen, 675 m NNO Balketorp, Dls</t>
+          <t>Balketorp, 400 m NO om, Dls</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>333364.6442548583</v>
+        <v>333273.3609825537</v>
       </c>
       <c r="R10" t="n">
-        <v>6498805.502037385</v>
+        <v>6498504.655406407</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1726,7 +1737,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>1979-04-22</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1736,7 +1747,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>1979-04-22</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1750,36 +1761,10 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>Kjell Eriksson</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>F1402</t>
-        </is>
-      </c>
       <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr">
-        <is>
-          <t>Rolf-Göran Carlsson</t>
-        </is>
-      </c>
-      <c r="AV10" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
       <c r="AW10" t="inlineStr">
         <is>
           <t>Kjell Eriksson</t>
@@ -1794,10 +1779,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96142344</v>
+        <v>2192816</v>
       </c>
       <c r="B11" t="n">
-        <v>90319</v>
+        <v>104489</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1810,37 +1795,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4769</v>
+        <v>219686</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vätteros</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lathraea squamaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Muggelidsbäcken, Dls</t>
+          <t>Balketorp, 400 m NO om, Dls</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>333265.6097484134</v>
+        <v>333273.3609825537</v>
       </c>
       <c r="R11" t="n">
-        <v>6498726.768297401</v>
+        <v>6498504.655406407</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1864,7 +1849,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2021-09-14</t>
+          <t>1982-05-19</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1874,7 +1859,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2021-09-14</t>
+          <t>1982-05-19</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1894,22 +1879,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Kjell Eriksson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Kjell Eriksson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>96142343</v>
+        <v>2202431</v>
       </c>
       <c r="B12" t="n">
-        <v>90319</v>
+        <v>108194</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1922,37 +1907,37 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4769</v>
+        <v>219711</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Muggelidsbäcken, Dls</t>
+          <t>Balketorp, 600 m N-NNV om, Dls</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>333251.1676608387</v>
+        <v>332860.5715872086</v>
       </c>
       <c r="R12" t="n">
-        <v>6498743.562633296</v>
+        <v>6498729.504914329</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1976,7 +1961,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2021-09-14</t>
+          <t>1983-06-10</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1986,7 +1971,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2021-09-14</t>
+          <t>1983-06-10</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2006,22 +1991,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Kjell Eriksson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Kjell Eriksson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>96142350</v>
+        <v>258538</v>
       </c>
       <c r="B13" t="n">
-        <v>90653</v>
+        <v>92804</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2030,41 +2015,41 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>782</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skirmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hookeria lucens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hedw.) Sm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Muggelid, Dls</t>
+          <t>Muggelidsbäcken, strax N om Balketorp, Dls</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>333288.6459826281</v>
+        <v>333081.3534867804</v>
       </c>
       <c r="R13" t="n">
-        <v>6498947.551675561</v>
+        <v>6498342.744522936</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2088,7 +2073,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2021-09-14</t>
+          <t>1999-05-15</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2098,7 +2083,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2021-09-14</t>
+          <t>1999-05-15</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2106,6 +2091,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Tämligen rikligt längs ca 150 m av bäcken. Datum osäkert.</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
@@ -2114,16 +2104,26 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>I skuggig blandskog</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>På fuktig jord i bäckkant</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>

--- a/artfynd/A 44561-2021.xlsx
+++ b/artfynd/A 44561-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>96142350</v>
+        <v>258538</v>
       </c>
       <c r="B2" t="n">
-        <v>90653</v>
+        <v>92804</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4364</v>
+        <v>782</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skirmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hookeria lucens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hedw.) Sm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Muggelid, Dls</t>
+          <t>Muggelidsbäcken, strax N om Balketorp, Dls</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>333288.6459826281</v>
+        <v>333081.3534867804</v>
       </c>
       <c r="R2" t="n">
-        <v>6498947.551675561</v>
+        <v>6498342.744522936</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2021-09-14</t>
+          <t>1999-05-15</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2021-09-14</t>
+          <t>1999-05-15</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -768,6 +768,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Tämligen rikligt längs ca 150 m av bäcken. Datum osäkert.</t>
+        </is>
+      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
@@ -776,26 +781,36 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>I skuggig blandskog</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>På fuktig jord i bäckkant</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Leif Appelgren</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>69173232</v>
+        <v>2199338</v>
       </c>
       <c r="B3" t="n">
-        <v>90655</v>
+        <v>108193</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,41 +819,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>788</v>
+        <v>219711</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum geogenium</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Banker</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Muggelidsbäcken, Dls</t>
+          <t>Balketorp, 400 m NO om, Dls</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>333304.9626084958</v>
+        <v>333273.3609825537</v>
       </c>
       <c r="R3" t="n">
-        <v>6498681.251649193</v>
+        <v>6498504.655406407</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -862,7 +877,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2017-08-27</t>
+          <t>1979-04-22</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,7 +887,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2017-08-27</t>
+          <t>1979-04-22</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -888,35 +903,26 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>Äldre barrdominerad skog utmed bäck med delvis kvillande lopp</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Kjell Eriksson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>Åtgärdsprogram för mossor i Västra Götalands län</t>
-        </is>
-      </c>
+          <t>Kjell Eriksson</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16044867</v>
+        <v>2192816</v>
       </c>
       <c r="B4" t="n">
-        <v>90671</v>
+        <v>104489</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,52 +931,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4368</v>
+        <v>219686</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Vätteros</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Lathraea squamaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Buxåskullen, 675 m NNO Balketorp, Dls</t>
+          <t>Balketorp, 400 m NO om, Dls</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>333364.6442548583</v>
+        <v>333273.3609825537</v>
       </c>
       <c r="R4" t="n">
-        <v>6498805.502037385</v>
+        <v>6498504.655406407</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -994,7 +989,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>1982-05-19</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1004,7 +999,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>1982-05-19</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1018,36 +1013,10 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>Kjell Eriksson</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>F1402</t>
-        </is>
-      </c>
       <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr">
-        <is>
-          <t>Rolf-Göran Carlsson</t>
-        </is>
-      </c>
-      <c r="AV4" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
       <c r="AW4" t="inlineStr">
         <is>
           <t>Kjell Eriksson</t>
@@ -1062,10 +1031,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>96142344</v>
+        <v>2202431</v>
       </c>
       <c r="B5" t="n">
-        <v>90319</v>
+        <v>108194</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1078,37 +1047,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4769</v>
+        <v>219711</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Muggelidsbäcken, Dls</t>
+          <t>Balketorp, 600 m N-NNV om, Dls</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>333265.6097484134</v>
+        <v>332860.5715872086</v>
       </c>
       <c r="R5" t="n">
-        <v>6498726.768297401</v>
+        <v>6498729.504914329</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1132,7 +1101,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-09-14</t>
+          <t>1983-06-10</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1142,7 +1111,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-09-14</t>
+          <t>1983-06-10</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1162,12 +1131,12 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Kjell Eriksson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Kjell Eriksson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
@@ -1313,10 +1282,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>69173229</v>
+        <v>69173232</v>
       </c>
       <c r="B7" t="n">
-        <v>92864</v>
+        <v>90655</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1325,25 +1294,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>815</v>
+        <v>788</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stor skogsbäckmossa</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hygrohypnum subeugyrium</t>
+          <t>Hydnellum geogenium</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Renauld &amp; Cardot) Broth.</t>
+          <t>(Fr.) Banker</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1353,10 +1322,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>333243.743277251</v>
+        <v>333304.9626084958</v>
       </c>
       <c r="R7" t="n">
-        <v>6498692.219576385</v>
+        <v>6498681.251649193</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1434,37 +1403,37 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>69173228</v>
+        <v>69173229</v>
       </c>
       <c r="B8" t="n">
-        <v>108194</v>
+        <v>92864</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>219711</v>
+        <v>815</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Stor skogsbäckmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Hygrohypnum subeugyrium</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Renauld &amp; Cardot) Broth.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1555,14 +1524,14 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96142343</v>
+        <v>69173228</v>
       </c>
       <c r="B9" t="n">
-        <v>90319</v>
+        <v>108194</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1571,21 +1540,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4769</v>
+        <v>219711</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1595,13 +1564,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>333251.1676608387</v>
+        <v>333243.743277251</v>
       </c>
       <c r="R9" t="n">
-        <v>6498743.562633296</v>
+        <v>6498692.219576385</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1625,7 +1594,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2021-09-14</t>
+          <t>2017-08-27</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1635,7 +1604,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2021-09-14</t>
+          <t>2017-08-27</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1651,26 +1620,35 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Äldre barrdominerad skog utmed bäck med delvis kvillande lopp</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr"/>
+          <t>Henrik Weibull</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>Åtgärdsprogram för mossor i Västra Götalands län</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2199338</v>
+        <v>16044867</v>
       </c>
       <c r="B10" t="n">
-        <v>108193</v>
+        <v>90671</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1679,41 +1657,52 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>219711</v>
+        <v>4368</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(Scop.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Balketorp, 400 m NO om, Dls</t>
+          <t>Buxåskullen, 675 m NNO Balketorp, Dls</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>333273.3609825537</v>
+        <v>333364.6442548583</v>
       </c>
       <c r="R10" t="n">
-        <v>6498504.655406407</v>
+        <v>6498805.502037385</v>
       </c>
       <c r="S10" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1737,7 +1726,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1979-04-22</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1747,7 +1736,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>1979-04-22</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1761,10 +1750,36 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>Kjell Eriksson</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>F1402</t>
+        </is>
+      </c>
       <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>Rolf-Göran Carlsson</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
       <c r="AW10" t="inlineStr">
         <is>
           <t>Kjell Eriksson</t>
@@ -1779,10 +1794,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2192816</v>
+        <v>96142344</v>
       </c>
       <c r="B11" t="n">
-        <v>104489</v>
+        <v>90319</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1795,37 +1810,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>219686</v>
+        <v>4769</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vätteros</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lathraea squamaria</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Balketorp, 400 m NO om, Dls</t>
+          <t>Muggelidsbäcken, Dls</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>333273.3609825537</v>
+        <v>333265.6097484134</v>
       </c>
       <c r="R11" t="n">
-        <v>6498504.655406407</v>
+        <v>6498726.768297401</v>
       </c>
       <c r="S11" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1849,7 +1864,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1982-05-19</t>
+          <t>2021-09-14</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1859,7 +1874,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>1982-05-19</t>
+          <t>2021-09-14</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1879,22 +1894,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Kjell Eriksson</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Kjell Eriksson</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2202431</v>
+        <v>96142343</v>
       </c>
       <c r="B12" t="n">
-        <v>108194</v>
+        <v>90319</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1907,37 +1922,37 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>219711</v>
+        <v>4769</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Balketorp, 600 m N-NNV om, Dls</t>
+          <t>Muggelidsbäcken, Dls</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>332860.5715872086</v>
+        <v>333251.1676608387</v>
       </c>
       <c r="R12" t="n">
-        <v>6498729.504914329</v>
+        <v>6498743.562633296</v>
       </c>
       <c r="S12" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1961,7 +1976,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1983-06-10</t>
+          <t>2021-09-14</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1971,7 +1986,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>1983-06-10</t>
+          <t>2021-09-14</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1991,22 +2006,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Kjell Eriksson</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Kjell Eriksson</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>258538</v>
+        <v>96142350</v>
       </c>
       <c r="B13" t="n">
-        <v>92804</v>
+        <v>90653</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2015,41 +2030,41 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>782</v>
+        <v>4364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skirmossa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hookeria lucens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Hedw.) Sm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Muggelidsbäcken, strax N om Balketorp, Dls</t>
+          <t>Muggelid, Dls</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>333081.3534867804</v>
+        <v>333288.6459826281</v>
       </c>
       <c r="R13" t="n">
-        <v>6498342.744522936</v>
+        <v>6498947.551675561</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2073,7 +2088,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1999-05-15</t>
+          <t>2021-09-14</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2083,7 +2098,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>1999-05-15</t>
+          <t>2021-09-14</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2091,11 +2106,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Tämligen rikligt längs ca 150 m av bäcken. Datum osäkert.</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
@@ -2104,26 +2114,16 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>I skuggig blandskog</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>På fuktig jord i bäckkant</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Leif Appelgren</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
